--- a/Country Mapping.xlsx
+++ b/Country Mapping.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Tabelle1!$A$1:$N$171</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Tabelle1!$A$1:$N$172</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="566">
   <si>
     <t xml:space="preserve">Recipient code</t>
   </si>
@@ -1039,15 +1039,18 @@
     <t xml:space="preserve">MUS</t>
   </si>
   <si>
+    <t xml:space="preserve">Melanesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mélanésie, régional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melanesien, regional</t>
+  </si>
+  <si>
     <t xml:space="preserve">Melanesia, regional</t>
   </si>
   <si>
-    <t xml:space="preserve">Mélanésie, régional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanesien, regional</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
@@ -1078,9 +1081,6 @@
     <t xml:space="preserve">Micronésie, régional</t>
   </si>
   <si>
-    <t xml:space="preserve">Micronesien, regional</t>
-  </si>
-  <si>
     <t xml:space="preserve">Middle Africa, regional</t>
   </si>
   <si>
@@ -1646,9 +1646,6 @@
   </si>
   <si>
     <t xml:space="preserve">VUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanesia</t>
   </si>
   <si>
     <t xml:space="preserve">Venezuela</t>
@@ -1911,13 +1908,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N745"/>
+  <dimension ref="A1:N746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E145" activeCellId="0" sqref="E145"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D99" activeCellId="0" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5829,9 +5826,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="n">
-        <v>1033</v>
-      </c>
+      <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
         <v>338</v>
       </c>
@@ -5856,50 +5851,38 @@
         <v>165</v>
       </c>
       <c r="K94" s="2"/>
-      <c r="L94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="n">
-        <v>358</v>
+        <v>1033</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>341</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>344</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I95" s="2"/>
       <c r="J95" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="K95" s="2"/>
       <c r="L95" s="2" t="n">
         <v>0</v>
       </c>
@@ -5912,41 +5895,43 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
-        <v>860</v>
+        <v>358</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I96" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="J96" s="2" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L96" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M96" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96" s="2" t="n">
         <v>0</v>
@@ -5954,18 +5939,20 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="n">
-        <v>1034</v>
+        <v>860</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
         <v>290</v>
       </c>
@@ -5973,18 +5960,20 @@
         <v>164</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="K97" s="2"/>
+      <c r="K97" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="L97" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M97" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N97" s="2" t="n">
         <v>0</v>
@@ -5992,30 +5981,30 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="2" t="n">
@@ -6030,30 +6019,30 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
-        <v>589</v>
+        <v>1028</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>271</v>
+        <v>50</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2" t="n">
@@ -6068,40 +6057,34 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="n">
-        <v>93</v>
+        <v>589</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>360</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K100" s="2"/>
       <c r="L100" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100" s="2" t="n">
         <v>0</v>
@@ -6112,35 +6095,37 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
-        <v>753</v>
+        <v>93</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2" t="s">
-        <v>20</v>
+      <c r="I101" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L101" s="2" t="n">
         <v>1</v>
@@ -6154,38 +6139,38 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="n">
-        <v>65</v>
+        <v>753</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="I102" s="2"/>
-      <c r="J102" s="3" t="s">
-        <v>35</v>
+      <c r="J102" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L102" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102" s="2" t="n">
         <v>0</v>
@@ -6196,41 +6181,41 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="n">
-        <v>385</v>
+        <v>65</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I103" s="2"/>
-      <c r="J103" s="2" t="s">
-        <v>55</v>
+      <c r="J103" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>370</v>
+        <v>36</v>
       </c>
       <c r="L103" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M103" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N103" s="2" t="n">
         <v>0</v>
@@ -6238,43 +6223,41 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="n">
-        <v>136</v>
+        <v>385</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>41</v>
+        <v>369</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>170</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>42</v>
+        <v>370</v>
       </c>
       <c r="L104" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M104" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N104" s="2" t="n">
         <v>0</v>
@@ -6282,37 +6265,37 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="n">
-        <v>259</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>110</v>
+        <v>374</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L105" s="2" t="n">
         <v>0</v>
@@ -6321,40 +6304,42 @@
         <v>0</v>
       </c>
       <c r="N105" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="n">
-        <v>635</v>
+        <v>259</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I106" s="2"/>
+      <c r="I106" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J106" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L106" s="2" t="n">
         <v>0</v>
@@ -6368,37 +6353,35 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="n">
-        <v>275</v>
+        <v>635</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I107" s="2"/>
       <c r="J107" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L107" s="2" t="n">
         <v>0</v>
@@ -6407,46 +6390,48 @@
         <v>0</v>
       </c>
       <c r="N107" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="n">
-        <v>845</v>
+        <v>275</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I108" s="2"/>
+      <c r="I108" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J108" s="2" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="L108" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M108" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N108" s="2" t="n">
         <v>0</v>
@@ -6454,41 +6439,41 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="n">
-        <v>660</v>
+        <v>845</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="2" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="L109" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="M109" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="N109" s="2" t="n">
         <v>0</v>
@@ -6496,82 +6481,80 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="n">
-        <v>364</v>
+        <v>660</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L110" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N110" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="n">
-        <v>260</v>
+        <v>364</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I111" s="2"/>
       <c r="J111" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L111" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M111" s="2" t="n">
         <v>0</v>
@@ -6582,19 +6565,19 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>86</v>
@@ -6603,7 +6586,7 @@
         <v>25</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>19</v>
@@ -6612,10 +6595,10 @@
         <v>27</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L112" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" s="2" t="n">
         <v>0</v>
@@ -6626,83 +6609,85 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="n">
-        <v>856</v>
+        <v>261</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I113" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J113" s="2" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>370</v>
+        <v>42</v>
       </c>
       <c r="L113" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M113" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="N113" s="2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="n">
-        <v>66</v>
+        <v>856</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I114" s="2"/>
-      <c r="J114" s="3" t="s">
-        <v>35</v>
+      <c r="J114" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>36</v>
+        <v>370</v>
       </c>
       <c r="L114" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="M114" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="N114" s="2" t="n">
         <v>0</v>
@@ -6710,34 +6695,38 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="n">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" s="4" t="s">
-        <v>41</v>
+        <v>399</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I115" s="2"/>
-      <c r="J115" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K115" s="2"/>
+      <c r="J115" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L115" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115" s="2" t="n">
         <v>0</v>
@@ -6748,37 +6737,37 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="n">
-        <v>889</v>
+        <v>189</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E116" s="2"/>
-      <c r="F116" s="2" t="s">
-        <v>164</v>
+      <c r="F116" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M116" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N116" s="2" t="n">
         <v>0</v>
@@ -6786,127 +6775,123 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="n">
-        <v>665</v>
+        <v>889</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>408</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I117" s="2"/>
       <c r="J117" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="K117" s="2"/>
       <c r="L117" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M117" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N117" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="n">
-        <v>861</v>
+        <v>665</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I118" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J118" s="2" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="L118" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M118" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="N118" s="2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="n">
-        <v>366</v>
+        <v>861</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="L119" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M119" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N119" s="2" t="n">
         <v>0</v>
@@ -6914,103 +6899,103 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="n">
-        <v>862</v>
+        <v>366</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="2" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L120" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M120" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="n">
-        <v>451</v>
+        <v>862</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>61</v>
+        <v>230</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L121" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M121" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="N121" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="n">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>61</v>
@@ -7021,9 +7006,7 @@
       <c r="H122" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I122" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="I122" s="2"/>
       <c r="J122" s="2" t="s">
         <v>47</v>
       </c>
@@ -7031,7 +7014,7 @@
         <v>36</v>
       </c>
       <c r="L122" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122" s="2" t="n">
         <v>0</v>
@@ -7042,35 +7025,37 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="n">
-        <v>755</v>
+        <v>454</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I123" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="J123" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L123" s="2" t="n">
         <v>0</v>
@@ -7084,32 +7069,36 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="n">
-        <v>1035</v>
+        <v>755</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="E124" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="F124" s="2" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I124" s="2"/>
       <c r="J124" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K124" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="L124" s="2" t="n">
         <v>0</v>
       </c>
@@ -7122,40 +7111,34 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="n">
-        <v>266</v>
+        <v>1035</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>430</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="E125" s="2"/>
       <c r="F125" s="2" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I125" s="2"/>
       <c r="J125" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="K125" s="2"/>
       <c r="L125" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M125" s="2" t="n">
         <v>0</v>
@@ -7166,38 +7149,40 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="n">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I126" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J126" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>370</v>
+        <v>21</v>
       </c>
       <c r="L126" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M126" s="2" t="n">
         <v>0</v>
@@ -7208,41 +7193,41 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="n">
-        <v>383</v>
+        <v>276</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>36</v>
+        <v>370</v>
       </c>
       <c r="L127" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M127" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127" s="2" t="n">
         <v>0</v>
@@ -7250,19 +7235,19 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>54</v>
@@ -7292,35 +7277,35 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="n">
-        <v>880</v>
+        <v>384</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L129" s="2" t="n">
         <v>0</v>
@@ -7334,32 +7319,32 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="n">
-        <v>268</v>
+        <v>880</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I130" s="2"/>
       <c r="J130" s="2" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>42</v>
@@ -7376,22 +7361,22 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>25</v>
@@ -7399,9 +7384,7 @@
       <c r="H131" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I131" s="2" t="s">
-        <v>170</v>
-      </c>
+      <c r="I131" s="2"/>
       <c r="J131" s="2" t="s">
         <v>27</v>
       </c>
@@ -7412,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="M131" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131" s="2" t="n">
         <v>0</v>
@@ -7420,37 +7403,37 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="n">
-        <v>63</v>
+        <v>269</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>35</v>
+        <v>170</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L132" s="2" t="n">
         <v>0</v>
@@ -7464,35 +7447,37 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="n">
-        <v>272</v>
+        <v>63</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L133" s="2" t="n">
         <v>0</v>
@@ -7501,46 +7486,46 @@
         <v>0</v>
       </c>
       <c r="N133" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="n">
-        <v>866</v>
+        <v>272</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I134" s="2"/>
       <c r="J134" s="2" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L134" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M134" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N134" s="2" t="n">
         <v>1</v>
@@ -7548,43 +7533,41 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="n">
-        <v>273</v>
+        <v>866</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I135" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="I135" s="2"/>
       <c r="J135" s="2" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L135" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M135" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135" s="2" t="n">
         <v>1</v>
@@ -7592,32 +7575,38 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="n">
-        <v>689</v>
+        <v>273</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="E136" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>460</v>
+      </c>
       <c r="F136" s="2" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I136" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="J136" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K136" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L136" s="2" t="n">
         <v>0</v>
       </c>
@@ -7625,43 +7614,37 @@
         <v>0</v>
       </c>
       <c r="N136" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="n">
-        <v>218</v>
+        <v>689</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>467</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="E137" s="2"/>
       <c r="F137" s="2" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I137" s="2"/>
       <c r="J137" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K137" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K137" s="2"/>
       <c r="L137" s="2" t="n">
         <v>0</v>
       </c>
@@ -7674,32 +7657,38 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="n">
-        <v>489</v>
+        <v>218</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="E138" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>467</v>
+      </c>
       <c r="F138" s="2" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I138" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="J138" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K138" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L138" s="2" t="n">
         <v>0</v>
       </c>
@@ -7712,30 +7701,30 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="n">
-        <v>679</v>
+        <v>489</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I139" s="2"/>
       <c r="J139" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="2" t="n">
@@ -7750,29 +7739,30 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="n">
-        <v>289</v>
+        <v>679</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
-        <v>477</v>
+        <v>16</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="I140" s="2"/>
       <c r="J140" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="2" t="n">
@@ -7787,118 +7777,113 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="n">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>481</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="E141" s="2"/>
       <c r="F141" s="2" t="s">
-        <v>110</v>
+        <v>477</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K141" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="K141" s="2"/>
       <c r="L141" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M141" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N141" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="n">
-        <v>1029</v>
+        <v>279</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="E142" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="F142" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I142" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="J142" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K142" s="2"/>
+      <c r="K142" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L142" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M142" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N142" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="n">
-        <v>640</v>
+        <v>1029</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>486</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="E143" s="2"/>
       <c r="F143" s="2" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I143" s="2"/>
       <c r="J143" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K143" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K143" s="2"/>
       <c r="L143" s="2" t="n">
         <v>0</v>
       </c>
@@ -7911,31 +7896,36 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="n">
-        <v>88</v>
+        <v>640</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I144" s="2"/>
-      <c r="J144" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K144" s="2"/>
+      <c r="J144" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="L144" s="2" t="n">
         <v>0</v>
       </c>
@@ -7948,38 +7938,31 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="n">
-        <v>278</v>
+        <v>88</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J145" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I145" s="2"/>
+      <c r="J145" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K145" s="2"/>
       <c r="L145" s="2" t="n">
         <v>0</v>
       </c>
@@ -7987,113 +7970,113 @@
         <v>0</v>
       </c>
       <c r="N145" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="n">
-        <v>457</v>
+        <v>278</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I146" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="J146" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L146" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M146" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="N146" s="2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="n">
-        <v>573</v>
+        <v>457</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>271</v>
+        <v>61</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I147" s="2"/>
       <c r="J147" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L147" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M147" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N147" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="n">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>17</v>
@@ -8101,15 +8084,17 @@
       <c r="H148" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I148" s="2"/>
+      <c r="I148" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="J148" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L148" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M148" s="2" t="n">
         <v>0</v>
@@ -8120,40 +8105,38 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="n">
-        <v>282</v>
+        <v>615</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I149" s="2"/>
       <c r="J149" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L149" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M149" s="2" t="n">
         <v>0</v>
@@ -8164,35 +8147,37 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="n">
-        <v>764</v>
+        <v>282</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I150" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J150" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L150" s="2" t="n">
         <v>0</v>
@@ -8201,24 +8186,24 @@
         <v>0</v>
       </c>
       <c r="N150" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="n">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>117</v>
@@ -8227,20 +8212,20 @@
         <v>17</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I151" s="2"/>
       <c r="J151" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L151" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M151" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N151" s="2" t="n">
         <v>0</v>
@@ -8248,79 +8233,79 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="n">
-        <v>283</v>
+        <v>765</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I152" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="I152" s="2"/>
       <c r="J152" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L152" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M152" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N152" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="n">
-        <v>868</v>
+        <v>283</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I153" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J153" s="2" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>370</v>
+        <v>21</v>
       </c>
       <c r="L153" s="2" t="n">
         <v>0</v>
@@ -8329,24 +8314,24 @@
         <v>0</v>
       </c>
       <c r="N153" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="n">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>163</v>
@@ -8355,20 +8340,20 @@
         <v>164</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2" t="s">
         <v>165</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>36</v>
+        <v>370</v>
       </c>
       <c r="L154" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M154" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N154" s="2" t="n">
         <v>0</v>
@@ -8376,43 +8361,41 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="n">
-        <v>139</v>
+        <v>870</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>41</v>
+        <v>516</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I155" s="2" t="s">
-        <v>170</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I155" s="2"/>
       <c r="J155" s="2" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L155" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M155" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N155" s="2" t="n">
         <v>0</v>
@@ -8420,35 +8403,37 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>521</v>
+        <v>139</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>32</v>
+        <v>520</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I156" s="2"/>
-      <c r="J156" s="3" t="s">
-        <v>35</v>
+        <v>66</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L156" s="2" t="n">
         <v>0</v>
@@ -8462,38 +8447,38 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="n">
-        <v>616</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>525</v>
+        <v>55</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>521</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I157" s="2"/>
-      <c r="J157" s="2" t="s">
-        <v>20</v>
+      <c r="J157" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L157" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M157" s="2" t="n">
         <v>0</v>
@@ -8504,41 +8489,41 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="n">
-        <v>872</v>
+        <v>616</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="2" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L158" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M158" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N158" s="2" t="n">
         <v>0</v>
@@ -8546,281 +8531,279 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="n">
-        <v>285</v>
+        <v>872</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I159" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="I159" s="2"/>
       <c r="J159" s="2" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L159" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M159" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="N159" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="n">
+        <v>285</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L160" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B161" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C161" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D161" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E161" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="F160" s="2" t="s">
+      <c r="F161" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G160" s="2" t="s">
+      <c r="G161" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H160" s="2" t="s">
+      <c r="H161" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I160" s="2" t="s">
+      <c r="I161" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J160" s="3" t="s">
+      <c r="J161" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K160" s="2" t="s">
+      <c r="K161" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L160" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M160" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N160" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2" t="s">
+      <c r="L161" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2" t="s">
+      <c r="C162" s="2"/>
+      <c r="D162" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2" t="s">
+      <c r="E162" s="2"/>
+      <c r="F162" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G161" s="2" t="s">
+      <c r="G162" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H161" s="2" t="s">
+      <c r="H162" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2" t="s">
+      <c r="I162" s="2"/>
+      <c r="J162" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K161" s="2"/>
-      <c r="L161" s="2"/>
-      <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="n">
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="n">
         <v>617</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B163" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C163" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D163" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E163" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="F163" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G162" s="2" t="s">
+      <c r="G163" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H162" s="2" t="s">
+      <c r="H163" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I162" s="2" t="s">
+      <c r="I163" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J162" s="2" t="s">
+      <c r="J163" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K162" s="2" t="s">
+      <c r="K163" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L162" s="2" t="n">
+      <c r="L163" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M162" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N162" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="6" t="n">
+      <c r="M163" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="6" t="n">
         <v>854</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B164" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C164" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="D164" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="E163" s="6" t="s">
+      <c r="E164" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="F163" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="G163" s="2" t="s">
+      <c r="F164" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H163" s="6" t="s">
+      <c r="H164" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I163" s="6"/>
-      <c r="J163" s="2" t="s">
+      <c r="I164" s="6"/>
+      <c r="J164" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="K163" s="6" t="s">
+      <c r="K164" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L163" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M163" s="6" t="n">
+      <c r="L164" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="N163" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="n">
-        <v>463</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I164" s="2"/>
-      <c r="J164" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K164" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="L164" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M164" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N164" s="2" t="n">
-        <v>1</v>
+      <c r="N164" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="n">
-        <v>769</v>
+        <v>463</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I165" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I165" s="2"/>
       <c r="J165" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>42</v>
+        <v>370</v>
       </c>
       <c r="L165" s="2" t="n">
         <v>0</v>
@@ -8829,40 +8812,42 @@
         <v>0</v>
       </c>
       <c r="N165" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="n">
-        <v>876</v>
+        <v>769</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I166" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="J166" s="2" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>370</v>
+        <v>42</v>
       </c>
       <c r="L166" s="2" t="n">
         <v>0</v>
@@ -8876,37 +8861,35 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="n">
-        <v>550</v>
+        <v>876</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>271</v>
+        <v>163</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I167" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I167" s="2"/>
       <c r="J167" s="2" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>42</v>
+        <v>370</v>
       </c>
       <c r="L167" s="2" t="n">
         <v>0</v>
@@ -8915,37 +8898,43 @@
         <v>0</v>
       </c>
       <c r="N167" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="n">
-        <v>1030</v>
+        <v>550</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="E168" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>552</v>
+      </c>
       <c r="F168" s="2" t="s">
-        <v>86</v>
+        <v>271</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I168" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J168" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K168" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="L168" s="2" t="n">
         <v>0</v>
       </c>
@@ -8953,43 +8942,37 @@
         <v>0</v>
       </c>
       <c r="N168" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="n">
-        <v>580</v>
+        <v>1030</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>560</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="E169" s="2"/>
       <c r="F169" s="2" t="s">
-        <v>271</v>
+        <v>86</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I169" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I169" s="2"/>
       <c r="J169" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K169" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K169" s="2"/>
       <c r="L169" s="2" t="n">
         <v>0</v>
       </c>
@@ -8997,45 +8980,45 @@
         <v>0</v>
       </c>
       <c r="N169" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="n">
-        <v>288</v>
+        <v>580</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>110</v>
+        <v>271</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L170" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M170" s="2" t="n">
         <v>0</v>
@@ -9046,19 +9029,19 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="n">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>110</v>
@@ -9067,9 +9050,11 @@
         <v>25</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I171" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J171" s="2" t="s">
         <v>27</v>
       </c>
@@ -9087,19 +9072,46 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
-      <c r="I172" s="7"/>
-      <c r="J172" s="7"/>
-      <c r="K172" s="7"/>
-      <c r="L172" s="8"/>
-      <c r="M172" s="8"/>
+      <c r="A172" s="2" t="n">
+        <v>265</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L172" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7"/>
@@ -12177,17 +12189,17 @@
       <c r="M377" s="8"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="8"/>
-      <c r="B378" s="8"/>
-      <c r="C378" s="8"/>
-      <c r="D378" s="8"/>
-      <c r="E378" s="8"/>
-      <c r="F378" s="8"/>
-      <c r="G378" s="8"/>
-      <c r="H378" s="8"/>
-      <c r="I378" s="8"/>
-      <c r="J378" s="8"/>
-      <c r="K378" s="8"/>
+      <c r="A378" s="7"/>
+      <c r="B378" s="7"/>
+      <c r="C378" s="7"/>
+      <c r="D378" s="7"/>
+      <c r="E378" s="7"/>
+      <c r="F378" s="7"/>
+      <c r="G378" s="7"/>
+      <c r="H378" s="7"/>
+      <c r="I378" s="7"/>
+      <c r="J378" s="7"/>
+      <c r="K378" s="7"/>
       <c r="L378" s="8"/>
       <c r="M378" s="8"/>
     </row>
@@ -12567,19 +12579,19 @@
       <c r="M403" s="8"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="9"/>
-      <c r="B404" s="9"/>
-      <c r="C404" s="9"/>
-      <c r="D404" s="9"/>
-      <c r="E404" s="9"/>
-      <c r="F404" s="9"/>
-      <c r="G404" s="9"/>
-      <c r="H404" s="9"/>
-      <c r="I404" s="9"/>
-      <c r="J404" s="9"/>
-      <c r="K404" s="9"/>
-      <c r="L404" s="9"/>
-      <c r="M404" s="9"/>
+      <c r="A404" s="8"/>
+      <c r="B404" s="8"/>
+      <c r="C404" s="8"/>
+      <c r="D404" s="8"/>
+      <c r="E404" s="8"/>
+      <c r="F404" s="8"/>
+      <c r="G404" s="8"/>
+      <c r="H404" s="8"/>
+      <c r="I404" s="8"/>
+      <c r="J404" s="8"/>
+      <c r="K404" s="8"/>
+      <c r="L404" s="8"/>
+      <c r="M404" s="8"/>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="9"/>
@@ -17696,8 +17708,23 @@
       <c r="L745" s="9"/>
       <c r="M745" s="9"/>
     </row>
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="9"/>
+      <c r="B746" s="9"/>
+      <c r="C746" s="9"/>
+      <c r="D746" s="9"/>
+      <c r="E746" s="9"/>
+      <c r="F746" s="9"/>
+      <c r="G746" s="9"/>
+      <c r="H746" s="9"/>
+      <c r="I746" s="9"/>
+      <c r="J746" s="9"/>
+      <c r="K746" s="9"/>
+      <c r="L746" s="9"/>
+      <c r="M746" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N171"/>
+  <autoFilter ref="A1:N172"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Country Mapping.xlsx
+++ b/Country Mapping.xlsx
@@ -1045,12 +1045,12 @@
     <t xml:space="preserve">Mélanésie, régional</t>
   </si>
   <si>
+    <t xml:space="preserve">Melanesia, regional</t>
+  </si>
+  <si>
     <t xml:space="preserve">Melanesien, regional</t>
   </si>
   <si>
-    <t xml:space="preserve">Melanesia, regional</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
@@ -1069,16 +1069,16 @@
     <t xml:space="preserve">Micronésie</t>
   </si>
   <si>
+    <t xml:space="preserve">FSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronésie, régional</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mikronesien, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micronesia, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micronésie, régional</t>
   </si>
   <si>
     <t xml:space="preserve">Middle Africa, regional</t>
@@ -1910,11 +1910,11 @@
   </sheetPr>
   <dimension ref="A1:N746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D99" activeCellId="0" sqref="D99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B95" activeCellId="0" sqref="B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5834,7 +5834,7 @@
         <v>339</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
@@ -5860,13 +5860,13 @@
         <v>1033</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>339</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
@@ -5948,10 +5948,10 @@
         <v>347</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>290</v>
@@ -5984,13 +5984,13 @@
         <v>1034</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">

--- a/Country Mapping.xlsx
+++ b/Country Mapping.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Tabelle1!$A$1:$N$172</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Tabelle1!$A$1:$N$171</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="565">
   <si>
     <t xml:space="preserve">Recipient code</t>
   </si>
@@ -1039,13 +1039,10 @@
     <t xml:space="preserve">MUS</t>
   </si>
   <si>
-    <t xml:space="preserve">Melanesia</t>
+    <t xml:space="preserve">Melanesia, regional</t>
   </si>
   <si>
     <t xml:space="preserve">Mélanésie, régional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanesia, regional</t>
   </si>
   <si>
     <t xml:space="preserve">Melanesien, regional</t>
@@ -1908,13 +1905,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N746"/>
+  <dimension ref="A1:N745"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B95" activeCellId="0" sqref="B95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D96" activeCellId="0" sqref="D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5826,7 +5823,9 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2"/>
+      <c r="A94" s="2" t="n">
+        <v>1033</v>
+      </c>
       <c r="B94" s="2" t="s">
         <v>338</v>
       </c>
@@ -5834,7 +5833,7 @@
         <v>339</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
@@ -5851,38 +5850,50 @@
         <v>165</v>
       </c>
       <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+      <c r="L94" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="n">
-        <v>1033</v>
+        <v>358</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E95" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="F95" s="2" t="s">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I95" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="J95" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K95" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L95" s="2" t="n">
         <v>0</v>
       </c>
@@ -5895,43 +5906,41 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
-        <v>358</v>
+        <v>860</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L96" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M96" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" s="2" t="n">
         <v>0</v>
@@ -5939,20 +5948,18 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="n">
-        <v>860</v>
+        <v>1034</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>348</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
         <v>290</v>
       </c>
@@ -5960,20 +5967,18 @@
         <v>164</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="K97" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="K97" s="2"/>
       <c r="L97" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M97" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N97" s="2" t="n">
         <v>0</v>
@@ -5981,30 +5986,30 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="2" t="n">
@@ -6019,30 +6024,30 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
-        <v>1028</v>
+        <v>589</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2" t="s">
-        <v>50</v>
+        <v>271</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2" t="n">
@@ -6057,34 +6062,40 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="n">
-        <v>589</v>
+        <v>93</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E100" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="F100" s="2" t="s">
-        <v>271</v>
+        <v>32</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K100" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L100" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" s="2" t="n">
         <v>0</v>
@@ -6095,37 +6106,35 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
-        <v>93</v>
+        <v>753</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I101" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>35</v>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L101" s="2" t="n">
         <v>1</v>
@@ -6139,38 +6148,38 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="n">
-        <v>753</v>
+        <v>65</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I102" s="2"/>
-      <c r="J102" s="2" t="s">
-        <v>20</v>
+      <c r="J102" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L102" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M102" s="2" t="n">
         <v>0</v>
@@ -6181,41 +6190,41 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="n">
-        <v>65</v>
+        <v>385</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I103" s="2"/>
-      <c r="J103" s="3" t="s">
-        <v>35</v>
+      <c r="J103" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>36</v>
+        <v>369</v>
       </c>
       <c r="L103" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M103" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N103" s="2" t="n">
         <v>0</v>
@@ -6223,41 +6232,43 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="n">
-        <v>385</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>54</v>
+        <v>373</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I104" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="J104" s="2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>370</v>
+        <v>42</v>
       </c>
       <c r="L104" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M104" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N104" s="2" t="n">
         <v>0</v>
@@ -6265,37 +6276,37 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="n">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>41</v>
+        <v>376</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L105" s="2" t="n">
         <v>0</v>
@@ -6304,42 +6315,40 @@
         <v>0</v>
       </c>
       <c r="N105" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="n">
-        <v>259</v>
+        <v>635</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I106" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="I106" s="2"/>
       <c r="J106" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L106" s="2" t="n">
         <v>0</v>
@@ -6353,35 +6362,37 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="n">
-        <v>635</v>
+        <v>275</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I107" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J107" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L107" s="2" t="n">
         <v>0</v>
@@ -6390,48 +6401,46 @@
         <v>0</v>
       </c>
       <c r="N107" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="n">
-        <v>275</v>
+        <v>845</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I108" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="I108" s="2"/>
       <c r="J108" s="2" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="L108" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M108" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N108" s="2" t="n">
         <v>0</v>
@@ -6439,41 +6448,41 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="n">
-        <v>845</v>
+        <v>660</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="2" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="L109" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N109" s="2" t="n">
         <v>0</v>
@@ -6481,80 +6490,82 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="n">
-        <v>660</v>
+        <v>364</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L110" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="M110" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N110" s="2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="n">
-        <v>364</v>
+        <v>260</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I111" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J111" s="2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L111" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" s="2" t="n">
         <v>0</v>
@@ -6565,19 +6576,19 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>86</v>
@@ -6586,7 +6597,7 @@
         <v>25</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>19</v>
@@ -6595,10 +6606,10 @@
         <v>27</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L112" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M112" s="2" t="n">
         <v>0</v>
@@ -6609,85 +6620,83 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="n">
-        <v>261</v>
+        <v>856</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I113" s="2"/>
       <c r="J113" s="2" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>42</v>
+        <v>369</v>
       </c>
       <c r="L113" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M113" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N113" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="n">
-        <v>856</v>
+        <v>66</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I114" s="2"/>
-      <c r="J114" s="2" t="s">
-        <v>165</v>
+      <c r="J114" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>370</v>
+        <v>36</v>
       </c>
       <c r="L114" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N114" s="2" t="n">
         <v>0</v>
@@ -6695,38 +6704,34 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="n">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>32</v>
+        <v>402</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I115" s="2"/>
-      <c r="J115" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="J115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K115" s="2"/>
       <c r="L115" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M115" s="2" t="n">
         <v>0</v>
@@ -6737,37 +6742,37 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="n">
-        <v>189</v>
+        <v>889</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E116" s="2"/>
-      <c r="F116" s="4" t="s">
-        <v>41</v>
+      <c r="F116" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M116" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N116" s="2" t="n">
         <v>0</v>
@@ -6775,123 +6780,127 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="n">
-        <v>889</v>
+        <v>665</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E117" s="2"/>
+      <c r="E117" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F117" s="2" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I117" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J117" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K117" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="L117" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M117" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="N117" s="2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="n">
-        <v>665</v>
+        <v>861</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I118" s="2"/>
       <c r="J118" s="2" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="L118" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M118" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N118" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="n">
-        <v>861</v>
+        <v>366</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="L119" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M119" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N119" s="2" t="n">
         <v>0</v>
@@ -6899,103 +6908,103 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="n">
-        <v>366</v>
+        <v>862</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="2" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L120" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M120" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N120" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="n">
-        <v>862</v>
+        <v>451</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>230</v>
+        <v>61</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L121" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N121" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>61</v>
@@ -7006,7 +7015,9 @@
       <c r="H122" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I122" s="2"/>
+      <c r="I122" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="J122" s="2" t="s">
         <v>47</v>
       </c>
@@ -7014,7 +7025,7 @@
         <v>36</v>
       </c>
       <c r="L122" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M122" s="2" t="n">
         <v>0</v>
@@ -7025,37 +7036,35 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="n">
-        <v>454</v>
+        <v>755</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I123" s="2"/>
       <c r="J123" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L123" s="2" t="n">
         <v>0</v>
@@ -7069,36 +7078,32 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="n">
-        <v>755</v>
+        <v>1035</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>424</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="E124" s="2"/>
       <c r="F124" s="2" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I124" s="2"/>
       <c r="J124" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="K124" s="2"/>
       <c r="L124" s="2" t="n">
         <v>0</v>
       </c>
@@ -7111,34 +7116,40 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="n">
-        <v>1035</v>
+        <v>266</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="E125" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>429</v>
+      </c>
       <c r="F125" s="2" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I125" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J125" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K125" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L125" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M125" s="2" t="n">
         <v>0</v>
@@ -7149,40 +7160,38 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="n">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I126" s="2"/>
       <c r="J126" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>21</v>
+        <v>369</v>
       </c>
       <c r="L126" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M126" s="2" t="n">
         <v>0</v>
@@ -7193,41 +7202,41 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="n">
-        <v>276</v>
+        <v>383</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>370</v>
+        <v>36</v>
       </c>
       <c r="L127" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M127" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N127" s="2" t="n">
         <v>0</v>
@@ -7235,19 +7244,19 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>54</v>
@@ -7277,35 +7286,35 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="n">
-        <v>384</v>
+        <v>880</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L129" s="2" t="n">
         <v>0</v>
@@ -7319,32 +7328,32 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="n">
-        <v>880</v>
+        <v>268</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I130" s="2"/>
       <c r="J130" s="2" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>42</v>
@@ -7361,22 +7370,22 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>25</v>
@@ -7384,7 +7393,9 @@
       <c r="H131" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I131" s="2"/>
+      <c r="I131" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="J131" s="2" t="s">
         <v>27</v>
       </c>
@@ -7395,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="M131" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N131" s="2" t="n">
         <v>0</v>
@@ -7403,37 +7414,37 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="n">
-        <v>269</v>
+        <v>63</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L132" s="2" t="n">
         <v>0</v>
@@ -7447,37 +7458,35 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="n">
-        <v>63</v>
+        <v>272</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L133" s="2" t="n">
         <v>0</v>
@@ -7486,46 +7495,46 @@
         <v>0</v>
       </c>
       <c r="N133" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="n">
-        <v>272</v>
+        <v>866</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>86</v>
+        <v>230</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I134" s="2"/>
       <c r="J134" s="2" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L134" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M134" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N134" s="2" t="n">
         <v>1</v>
@@ -7533,41 +7542,43 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="n">
-        <v>866</v>
+        <v>273</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I135" s="2"/>
+      <c r="I135" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="J135" s="2" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L135" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M135" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N135" s="2" t="n">
         <v>1</v>
@@ -7575,38 +7586,32 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="n">
-        <v>273</v>
+        <v>689</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>460</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="E136" s="2"/>
       <c r="F136" s="2" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I136" s="2"/>
       <c r="J136" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K136" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K136" s="2"/>
       <c r="L136" s="2" t="n">
         <v>0</v>
       </c>
@@ -7614,37 +7619,43 @@
         <v>0</v>
       </c>
       <c r="N136" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="n">
-        <v>689</v>
+        <v>218</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="E137" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>466</v>
+      </c>
       <c r="F137" s="2" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I137" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="J137" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K137" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="L137" s="2" t="n">
         <v>0</v>
       </c>
@@ -7657,38 +7668,32 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="n">
-        <v>218</v>
+        <v>489</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>467</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="E138" s="2"/>
       <c r="F138" s="2" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I138" s="2"/>
       <c r="J138" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K138" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K138" s="2"/>
       <c r="L138" s="2" t="n">
         <v>0</v>
       </c>
@@ -7701,30 +7706,30 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="n">
-        <v>489</v>
+        <v>679</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I139" s="2"/>
       <c r="J139" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="2" t="n">
@@ -7739,30 +7744,29 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="n">
-        <v>679</v>
+        <v>289</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
-        <v>16</v>
+        <v>476</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I140" s="2"/>
       <c r="J140" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="2" t="n">
@@ -7777,113 +7781,118 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="n">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="E141" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>480</v>
+      </c>
       <c r="F141" s="2" t="s">
-        <v>477</v>
+        <v>110</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K141" s="2"/>
+      <c r="K141" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L141" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M141" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N141" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="n">
-        <v>279</v>
+        <v>1029</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>481</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="E142" s="2"/>
       <c r="F142" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I142" s="2"/>
       <c r="J142" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K142" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="K142" s="2"/>
       <c r="L142" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M142" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N142" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="n">
-        <v>1029</v>
+        <v>640</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="E143" s="2"/>
+      <c r="E143" s="2" t="s">
+        <v>485</v>
+      </c>
       <c r="F143" s="2" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I143" s="2"/>
       <c r="J143" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K143" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="L143" s="2" t="n">
         <v>0</v>
       </c>
@@ -7896,36 +7905,31 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="n">
-        <v>640</v>
+        <v>88</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I144" s="2"/>
-      <c r="J144" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="J144" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K144" s="2"/>
       <c r="L144" s="2" t="n">
         <v>0</v>
       </c>
@@ -7938,31 +7942,38 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="n">
-        <v>88</v>
+        <v>278</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>489</v>
       </c>
+      <c r="E145" s="2" t="s">
+        <v>491</v>
+      </c>
       <c r="F145" s="2" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I145" s="2"/>
-      <c r="J145" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K145" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L145" s="2" t="n">
         <v>0</v>
       </c>
@@ -7970,113 +7981,113 @@
         <v>0</v>
       </c>
       <c r="N145" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="n">
-        <v>278</v>
+        <v>457</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I146" s="2"/>
       <c r="J146" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L146" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M146" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N146" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="n">
-        <v>457</v>
+        <v>573</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I147" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="J147" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L147" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M147" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="N147" s="2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="n">
-        <v>573</v>
+        <v>615</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>17</v>
@@ -8084,17 +8095,15 @@
       <c r="H148" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I148" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="I148" s="2"/>
       <c r="J148" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L148" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148" s="2" t="n">
         <v>0</v>
@@ -8105,38 +8114,40 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="n">
-        <v>615</v>
+        <v>282</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I149" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J149" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L149" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M149" s="2" t="n">
         <v>0</v>
@@ -8147,37 +8158,35 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="n">
-        <v>282</v>
+        <v>764</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I150" s="2"/>
       <c r="J150" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L150" s="2" t="n">
         <v>0</v>
@@ -8186,24 +8195,24 @@
         <v>0</v>
       </c>
       <c r="N150" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="n">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>117</v>
@@ -8212,20 +8221,20 @@
         <v>17</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I151" s="2"/>
       <c r="J151" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L151" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M151" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N151" s="2" t="n">
         <v>0</v>
@@ -8233,79 +8242,79 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="n">
-        <v>765</v>
+        <v>283</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I152" s="2"/>
+      <c r="I152" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J152" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L152" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M152" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="N152" s="2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="n">
-        <v>283</v>
+        <v>868</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I153" s="2"/>
       <c r="J153" s="2" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>21</v>
+        <v>369</v>
       </c>
       <c r="L153" s="2" t="n">
         <v>0</v>
@@ -8314,24 +8323,24 @@
         <v>0</v>
       </c>
       <c r="N153" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="n">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>163</v>
@@ -8340,20 +8349,20 @@
         <v>164</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2" t="s">
         <v>165</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>370</v>
+        <v>36</v>
       </c>
       <c r="L154" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M154" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N154" s="2" t="n">
         <v>0</v>
@@ -8361,41 +8370,43 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="n">
-        <v>870</v>
+        <v>139</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>163</v>
+        <v>519</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I155" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="J155" s="2" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L155" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M155" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N155" s="2" t="n">
         <v>0</v>
@@ -8403,37 +8414,35 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="n">
-        <v>139</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>517</v>
+        <v>55</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>520</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>41</v>
+        <v>523</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J156" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="I156" s="2"/>
+      <c r="J156" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L156" s="2" t="n">
         <v>0</v>
@@ -8447,38 +8456,38 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>521</v>
+        <v>616</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I157" s="2"/>
-      <c r="J157" s="3" t="s">
-        <v>35</v>
+      <c r="J157" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L157" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M157" s="2" t="n">
         <v>0</v>
@@ -8489,41 +8498,41 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="n">
-        <v>616</v>
+        <v>872</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="2" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L158" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="M158" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="N158" s="2" t="n">
         <v>0</v>
@@ -8531,279 +8540,281 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="n">
-        <v>872</v>
+        <v>285</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I159" s="2"/>
+      <c r="I159" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J159" s="2" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L159" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M159" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="N159" s="2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="n">
-        <v>285</v>
+        <v>85</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J160" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L160" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M160" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N160" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="n">
-        <v>85</v>
-      </c>
+      <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>533</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="C161" s="2"/>
       <c r="D161" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E161" s="2" t="s">
         <v>534</v>
       </c>
+      <c r="E161" s="2"/>
       <c r="F161" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I161" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J161" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K161" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L161" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M161" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N161" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2"/>
+      <c r="A162" s="2" t="n">
+        <v>617</v>
+      </c>
       <c r="B162" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C162" s="2"/>
+      <c r="C162" s="2" t="s">
+        <v>536</v>
+      </c>
       <c r="D162" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E162" s="2"/>
+      <c r="E162" s="2" t="s">
+        <v>537</v>
+      </c>
       <c r="F162" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L162" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="6" t="n">
+        <v>854</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I163" s="6"/>
+      <c r="J163" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K163" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L163" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="n">
+        <v>463</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F164" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G162" s="2" t="s">
+      <c r="G164" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H162" s="2" t="s">
+      <c r="H164" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2" t="s">
+      <c r="I164" s="2"/>
+      <c r="J164" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="n">
-        <v>617</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I163" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J163" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K163" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L163" s="2" t="n">
+      <c r="K164" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="L164" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="M163" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N163" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="6" t="n">
-        <v>854</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="F164" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H164" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I164" s="6"/>
-      <c r="J164" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K164" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L164" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M164" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" s="6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="n">
-        <v>463</v>
+        <v>769</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I165" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="J165" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>370</v>
+        <v>42</v>
       </c>
       <c r="L165" s="2" t="n">
         <v>0</v>
@@ -8812,42 +8823,40 @@
         <v>0</v>
       </c>
       <c r="N165" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="n">
-        <v>769</v>
+        <v>876</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I166" s="2"/>
       <c r="J166" s="2" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>42</v>
+        <v>369</v>
       </c>
       <c r="L166" s="2" t="n">
         <v>0</v>
@@ -8861,35 +8870,37 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="n">
-        <v>876</v>
+        <v>550</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>163</v>
+        <v>271</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I167" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J167" s="2" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>370</v>
+        <v>42</v>
       </c>
       <c r="L167" s="2" t="n">
         <v>0</v>
@@ -8898,43 +8909,37 @@
         <v>0</v>
       </c>
       <c r="N167" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="n">
-        <v>550</v>
+        <v>1030</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>552</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="E168" s="2"/>
       <c r="F168" s="2" t="s">
-        <v>271</v>
+        <v>86</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I168" s="2"/>
       <c r="J168" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K168" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K168" s="2"/>
       <c r="L168" s="2" t="n">
         <v>0</v>
       </c>
@@ -8942,37 +8947,43 @@
         <v>0</v>
       </c>
       <c r="N168" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="n">
-        <v>1030</v>
+        <v>580</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E169" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>558</v>
+      </c>
       <c r="F169" s="2" t="s">
-        <v>86</v>
+        <v>271</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I169" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="J169" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K169" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L169" s="2" t="n">
         <v>0</v>
       </c>
@@ -8980,45 +8991,45 @@
         <v>0</v>
       </c>
       <c r="N169" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="n">
-        <v>580</v>
+        <v>288</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>271</v>
+        <v>110</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L170" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M170" s="2" t="n">
         <v>0</v>
@@ -9029,19 +9040,19 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="n">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>110</v>
@@ -9050,11 +9061,9 @@
         <v>25</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I171" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="I171" s="2"/>
       <c r="J171" s="2" t="s">
         <v>27</v>
       </c>
@@ -9072,46 +9081,19 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="n">
-        <v>265</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K172" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L172" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N172" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="A172" s="7"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
+      <c r="L172" s="8"/>
+      <c r="M172" s="8"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7"/>
@@ -12189,17 +12171,17 @@
       <c r="M377" s="8"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="7"/>
-      <c r="B378" s="7"/>
-      <c r="C378" s="7"/>
-      <c r="D378" s="7"/>
-      <c r="E378" s="7"/>
-      <c r="F378" s="7"/>
-      <c r="G378" s="7"/>
-      <c r="H378" s="7"/>
-      <c r="I378" s="7"/>
-      <c r="J378" s="7"/>
-      <c r="K378" s="7"/>
+      <c r="A378" s="8"/>
+      <c r="B378" s="8"/>
+      <c r="C378" s="8"/>
+      <c r="D378" s="8"/>
+      <c r="E378" s="8"/>
+      <c r="F378" s="8"/>
+      <c r="G378" s="8"/>
+      <c r="H378" s="8"/>
+      <c r="I378" s="8"/>
+      <c r="J378" s="8"/>
+      <c r="K378" s="8"/>
       <c r="L378" s="8"/>
       <c r="M378" s="8"/>
     </row>
@@ -12579,19 +12561,19 @@
       <c r="M403" s="8"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="8"/>
-      <c r="B404" s="8"/>
-      <c r="C404" s="8"/>
-      <c r="D404" s="8"/>
-      <c r="E404" s="8"/>
-      <c r="F404" s="8"/>
-      <c r="G404" s="8"/>
-      <c r="H404" s="8"/>
-      <c r="I404" s="8"/>
-      <c r="J404" s="8"/>
-      <c r="K404" s="8"/>
-      <c r="L404" s="8"/>
-      <c r="M404" s="8"/>
+      <c r="A404" s="9"/>
+      <c r="B404" s="9"/>
+      <c r="C404" s="9"/>
+      <c r="D404" s="9"/>
+      <c r="E404" s="9"/>
+      <c r="F404" s="9"/>
+      <c r="G404" s="9"/>
+      <c r="H404" s="9"/>
+      <c r="I404" s="9"/>
+      <c r="J404" s="9"/>
+      <c r="K404" s="9"/>
+      <c r="L404" s="9"/>
+      <c r="M404" s="9"/>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="9"/>
@@ -17708,23 +17690,8 @@
       <c r="L745" s="9"/>
       <c r="M745" s="9"/>
     </row>
-    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="9"/>
-      <c r="B746" s="9"/>
-      <c r="C746" s="9"/>
-      <c r="D746" s="9"/>
-      <c r="E746" s="9"/>
-      <c r="F746" s="9"/>
-      <c r="G746" s="9"/>
-      <c r="H746" s="9"/>
-      <c r="I746" s="9"/>
-      <c r="J746" s="9"/>
-      <c r="K746" s="9"/>
-      <c r="L746" s="9"/>
-      <c r="M746" s="9"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N172"/>
+  <autoFilter ref="A1:N171"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Country Mapping.xlsx
+++ b/Country Mapping.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="566">
   <si>
     <t xml:space="preserve">Recipient code</t>
   </si>
@@ -1337,6 +1337,9 @@
   </si>
   <si>
     <t xml:space="preserve">Saint-Vincent-et-les-Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sankt Vincent und die Grenadinen</t>
   </si>
   <si>
     <t xml:space="preserve">VCT</t>
@@ -1907,11 +1910,11 @@
   </sheetPr>
   <dimension ref="A1:N745"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D96" activeCellId="0" sqref="D96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E123" activeCellId="0" sqref="E123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7253,10 +7256,10 @@
         <v>437</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>54</v>
@@ -7289,16 +7292,16 @@
         <v>880</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>163</v>
@@ -7331,16 +7334,16 @@
         <v>268</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>441</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>50</v>
@@ -7373,16 +7376,16 @@
         <v>269</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C131" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>444</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>86</v>
@@ -7417,16 +7420,16 @@
         <v>63</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>32</v>
@@ -7461,16 +7464,16 @@
         <v>272</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>86</v>
@@ -7503,16 +7506,16 @@
         <v>866</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>230</v>
@@ -7545,16 +7548,16 @@
         <v>273</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C135" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>457</v>
-      </c>
       <c r="E135" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>110</v>
@@ -7589,13 +7592,13 @@
         <v>689</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2" t="s">
@@ -7627,16 +7630,16 @@
         <v>218</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>100</v>
@@ -7671,13 +7674,13 @@
         <v>489</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2" t="s">
@@ -7709,13 +7712,13 @@
         <v>679</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2" t="s">
@@ -7747,17 +7750,17 @@
         <v>289</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>25</v>
@@ -7784,16 +7787,16 @@
         <v>279</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>110</v>
@@ -7828,13 +7831,13 @@
         <v>1029</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2" t="s">
@@ -7866,16 +7869,16 @@
         <v>640</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>16</v>
@@ -7908,13 +7911,13 @@
         <v>88</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>32</v>
@@ -7945,16 +7948,16 @@
         <v>278</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C145" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>110</v>
@@ -7989,16 +7992,16 @@
         <v>457</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>61</v>
@@ -8031,16 +8034,16 @@
         <v>573</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>271</v>
@@ -8075,16 +8078,16 @@
         <v>615</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C148" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>498</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>16</v>
@@ -8117,16 +8120,16 @@
         <v>282</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C149" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>501</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>110</v>
@@ -8161,16 +8164,16 @@
         <v>764</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C150" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>504</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>117</v>
@@ -8203,16 +8206,16 @@
         <v>765</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>117</v>
@@ -8245,16 +8248,16 @@
         <v>283</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>86</v>
@@ -8289,16 +8292,16 @@
         <v>868</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C153" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>163</v>
@@ -8331,16 +8334,16 @@
         <v>870</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>163</v>
@@ -8373,16 +8376,16 @@
         <v>139</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>41</v>
@@ -8417,16 +8420,16 @@
         <v>55</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>32</v>
@@ -8459,16 +8462,16 @@
         <v>616</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C157" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="D157" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="E157" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>16</v>
@@ -8501,16 +8504,16 @@
         <v>872</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>163</v>
@@ -8543,16 +8546,16 @@
         <v>285</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>529</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>110</v>
@@ -8587,16 +8590,16 @@
         <v>85</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>32</v>
@@ -8629,11 +8632,11 @@
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2" t="s">
@@ -8659,16 +8662,16 @@
         <v>617</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C162" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>535</v>
-      </c>
       <c r="E162" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>16</v>
@@ -8703,16 +8706,16 @@
         <v>854</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>230</v>
@@ -8745,16 +8748,16 @@
         <v>463</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>61</v>
@@ -8787,16 +8790,16 @@
         <v>769</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>117</v>
@@ -8831,16 +8834,16 @@
         <v>876</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C166" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>545</v>
-      </c>
       <c r="E166" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>163</v>
@@ -8873,16 +8876,16 @@
         <v>550</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>271</v>
@@ -8917,13 +8920,13 @@
         <v>1030</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2" t="s">
@@ -8955,16 +8958,16 @@
         <v>580</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>271</v>
@@ -8999,16 +9002,16 @@
         <v>288</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>110</v>
@@ -9043,16 +9046,16 @@
         <v>265</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>110</v>
